--- a/Assets/Resources/ExcelData/ClassList.xlsx
+++ b/Assets/Resources/ExcelData/ClassList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/c6h12yith/HexGameTogether/Assets/Resources/ExcelData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76307056-0312-2D49-A677-CE20BB44D702}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{691684C8-49C2-2F4E-BA77-D8AC8941791D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10980" yWindow="1200" windowWidth="24540" windowHeight="14500" xr2:uid="{D40FF733-7A40-D24A-BB6F-5D62EC170F77}"/>
+    <workbookView xWindow="11360" yWindow="480" windowWidth="24540" windowHeight="14500" xr2:uid="{D40FF733-7A40-D24A-BB6F-5D62EC170F77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -453,7 +453,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
